--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H2">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.05781310498246</v>
+        <v>27.85346633333333</v>
       </c>
       <c r="N2">
-        <v>6.05781310498246</v>
+        <v>83.560399</v>
       </c>
       <c r="O2">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="P2">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="Q2">
-        <v>37.54356095541974</v>
+        <v>210.9336599126077</v>
       </c>
       <c r="R2">
-        <v>37.54356095541974</v>
+        <v>1898.402939213469</v>
       </c>
       <c r="S2">
-        <v>0.0587442749132241</v>
+        <v>0.1746932750383099</v>
       </c>
       <c r="T2">
-        <v>0.0587442749132241</v>
+        <v>0.1746932750383099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H3">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.612783116995526</v>
+        <v>0.6933116666666667</v>
       </c>
       <c r="N3">
-        <v>0.612783116995526</v>
+        <v>2.079935</v>
       </c>
       <c r="O3">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="P3">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="Q3">
-        <v>3.797750096722445</v>
+        <v>5.250433305498333</v>
       </c>
       <c r="R3">
-        <v>3.797750096722445</v>
+        <v>47.25389974948499</v>
       </c>
       <c r="S3">
-        <v>0.005942325929032069</v>
+        <v>0.004348359526344616</v>
       </c>
       <c r="T3">
-        <v>0.005942325929032069</v>
+        <v>0.004348359526344617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H4">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J4">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.3912570209975</v>
+        <v>43.16503600000001</v>
       </c>
       <c r="N4">
-        <v>38.3912570209975</v>
+        <v>129.495108</v>
       </c>
       <c r="O4">
-        <v>0.8519680008274439</v>
+        <v>0.601923638411936</v>
       </c>
       <c r="P4">
-        <v>0.8519680008274439</v>
+        <v>0.6019236384119359</v>
       </c>
       <c r="Q4">
-        <v>237.9314899856388</v>
+        <v>326.887824832172</v>
       </c>
       <c r="R4">
-        <v>237.9314899856388</v>
+        <v>2941.990423489548</v>
       </c>
       <c r="S4">
-        <v>0.372290547367795</v>
+        <v>0.2707254248266532</v>
       </c>
       <c r="T4">
-        <v>0.372290547367795</v>
+        <v>0.2707254248266532</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.05781310498246</v>
+        <v>27.85346633333333</v>
       </c>
       <c r="N5">
-        <v>6.05781310498246</v>
+        <v>83.560399</v>
       </c>
       <c r="O5">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="P5">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="Q5">
-        <v>16.64132263219454</v>
+        <v>77.54476517763588</v>
       </c>
       <c r="R5">
-        <v>16.64132263219454</v>
+        <v>697.9028865987229</v>
       </c>
       <c r="S5">
-        <v>0.02603861772158754</v>
+        <v>0.06422184584750676</v>
       </c>
       <c r="T5">
-        <v>0.02603861772158754</v>
+        <v>0.06422184584750676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J6">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.612783116995526</v>
+        <v>0.6933116666666667</v>
       </c>
       <c r="N6">
-        <v>0.612783116995526</v>
+        <v>2.079935</v>
       </c>
       <c r="O6">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="P6">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="Q6">
-        <v>1.683366815179071</v>
+        <v>1.930197474999444</v>
       </c>
       <c r="R6">
-        <v>1.683366815179071</v>
+        <v>17.371777274995</v>
       </c>
       <c r="S6">
-        <v>0.002633958006490124</v>
+        <v>0.001598571411115856</v>
       </c>
       <c r="T6">
-        <v>0.002633958006490124</v>
+        <v>0.001598571411115856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J7">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.3912570209975</v>
+        <v>43.16503600000001</v>
       </c>
       <c r="N7">
-        <v>38.3912570209975</v>
+        <v>129.495108</v>
       </c>
       <c r="O7">
-        <v>0.8519680008274439</v>
+        <v>0.601923638411936</v>
       </c>
       <c r="P7">
-        <v>0.8519680008274439</v>
+        <v>0.6019236384119359</v>
       </c>
       <c r="Q7">
-        <v>105.4640153583565</v>
+        <v>120.1725681265907</v>
       </c>
       <c r="R7">
-        <v>105.4640153583565</v>
+        <v>1081.553113139316</v>
       </c>
       <c r="S7">
-        <v>0.165019165843655</v>
+        <v>0.09952579168491334</v>
       </c>
       <c r="T7">
-        <v>0.165019165843655</v>
+        <v>0.09952579168491332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H8">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J8">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.05781310498246</v>
+        <v>27.85346633333333</v>
       </c>
       <c r="N8">
-        <v>6.05781310498246</v>
+        <v>83.560399</v>
       </c>
       <c r="O8">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="P8">
-        <v>0.1344332882253747</v>
+        <v>0.3884083358054969</v>
       </c>
       <c r="Q8">
-        <v>31.73164799580131</v>
+        <v>180.5058090999497</v>
       </c>
       <c r="R8">
-        <v>31.73164799580131</v>
+        <v>1624.552281899547</v>
       </c>
       <c r="S8">
-        <v>0.04965039559056309</v>
+        <v>0.1494932149196802</v>
       </c>
       <c r="T8">
-        <v>0.04965039559056309</v>
+        <v>0.1494932149196802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H9">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J9">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.612783116995526</v>
+        <v>0.6933116666666667</v>
       </c>
       <c r="N9">
-        <v>0.612783116995526</v>
+        <v>2.079935</v>
       </c>
       <c r="O9">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="P9">
-        <v>0.01359871094718126</v>
+        <v>0.009668025782567244</v>
       </c>
       <c r="Q9">
-        <v>3.209841213205976</v>
+        <v>4.493041614728334</v>
       </c>
       <c r="R9">
-        <v>3.209841213205976</v>
+        <v>40.437374532555</v>
       </c>
       <c r="S9">
-        <v>0.005022427011659063</v>
+        <v>0.00372109484510677</v>
       </c>
       <c r="T9">
-        <v>0.005022427011659063</v>
+        <v>0.003721094845106771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.23813584966867</v>
+        <v>6.480551000000001</v>
       </c>
       <c r="H10">
-        <v>5.23813584966867</v>
+        <v>19.441653</v>
       </c>
       <c r="I10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="J10">
-        <v>0.3693311102182161</v>
+        <v>0.3848867316651562</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.3912570209975</v>
+        <v>43.16503600000001</v>
       </c>
       <c r="N10">
-        <v>38.3912570209975</v>
+        <v>129.495108</v>
       </c>
       <c r="O10">
-        <v>0.8519680008274439</v>
+        <v>0.601923638411936</v>
       </c>
       <c r="P10">
-        <v>0.8519680008274439</v>
+        <v>0.6019236384119359</v>
       </c>
       <c r="Q10">
-        <v>201.098619715531</v>
+        <v>279.7332172148361</v>
       </c>
       <c r="R10">
-        <v>201.098619715531</v>
+        <v>2517.598954933525</v>
       </c>
       <c r="S10">
-        <v>0.314658287615994</v>
+        <v>0.2316724219003693</v>
       </c>
       <c r="T10">
-        <v>0.314658287615994</v>
+        <v>0.2316724219003693</v>
       </c>
     </row>
   </sheetData>
